--- a/template/ARRANGE.xlsx
+++ b/template/ARRANGE.xlsx
@@ -359,53 +359,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -739,9 +739,9 @@
     <col min="5" max="5" width="12.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="45.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="40.875" style="5" customWidth="1"/>
     <col min="11" max="11" width="21.625" style="7" customWidth="1"/>
     <col min="12" max="13" width="35.75" style="7" customWidth="1"/>
     <col min="14" max="14" width="94.125" style="3" customWidth="1"/>
@@ -751,22 +751,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="53.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1">
@@ -822,425 +822,547 @@
       <c r="K3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="42"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="29"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
-      <c r="N5" s="27"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="25"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="29"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="27"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="25"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="27"/>
+      <c r="N9" s="36"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="25"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="29"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="27"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="28"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="25"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="39"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
-      <c r="N13" s="27"/>
+      <c r="N13" s="36"/>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="28"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="25"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="29"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
-      <c r="N15" s="27"/>
+      <c r="N15" s="36"/>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="28"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="25"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="29"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="27"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="28"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="25"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="27"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="28"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="25"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="27"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="25"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="27"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="28"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="25"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="27"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="28"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="25"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="27"/>
+      <c r="N27" s="36"/>
       <c r="O27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="146">
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="A12:A13"/>
@@ -1265,132 +1387,10 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="N24:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.15748031496062989" top="0.35433070866141742" bottom="0.19685039370078741" header="0.27559055118110237" footer="0.15748031496062989"/>
-  <pageSetup paperSize="8" scale="51" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>